--- a/sasha/Type Total Calculations.xlsx
+++ b/sasha/Type Total Calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sasha Rabeno\Desktop\Fall 2024\INFO 5100\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sasha Rabeno\Desktop\Fall 2024\INFO 5100\info_5100_finalproject_fa24\sasha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB457C6F-3C51-4076-B0CC-9B77FE7277E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2523DBAF-3FC5-4681-832D-90425672D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{82B50202-5739-4261-AF58-72C81206C381}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -35623,10 +35623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFD1FA2-D886-4D2B-AFD1-44A400059A50}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36496,7 +36496,60 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <f>MIN(E3:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f>MIN(H3:H20)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>MIN(K3:K20)</f>
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <f>MIN(N3:N20)</f>
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <f>MIN(Q3:Q20)</f>
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <f>MIN(T3:T20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <f>MAX(E3:E20)</f>
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <f>MAX(H3:H20)</f>
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <f>MAX(K3:K20)</f>
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <f>MAX(N3:N20)</f>
+        <v>18</v>
+      </c>
+      <c r="Q23">
+        <f>MAX(Q3:Q20)</f>
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <f>MAX(T3:T20)</f>
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>